--- a/2022/SAMSUNG/JULY/02.07.2022/SAMSUNG Bank Statement July-2022202.xlsx
+++ b/2022/SAMSUNG/JULY/02.07.2022/SAMSUNG Bank Statement July-2022202.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\JULY\02.07.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\July\02.07.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3228,9 +3228,39 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3285,9 +3315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3295,33 +3322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9154,11 +9154,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9173,6 +9168,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9185,7 +9185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -32874,8 +32874,8 @@
   </sheetPr>
   <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32898,28 +32898,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="410" t="s">
+      <c r="A1" s="420" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="412"/>
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="422"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="409"/>
-      <c r="J1" s="409"/>
-      <c r="K1" s="409"/>
+      <c r="I1" s="419"/>
+      <c r="J1" s="419"/>
+      <c r="K1" s="419"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="419" t="s">
+      <c r="A2" s="429" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="421"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="431"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -32940,13 +32940,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="423" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="415"/>
+      <c r="B3" s="424"/>
+      <c r="C3" s="424"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="425"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -32973,13 +32973,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="422" t="s">
+      <c r="A4" s="432" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="423"/>
-      <c r="C4" s="423"/>
-      <c r="D4" s="423"/>
-      <c r="E4" s="424"/>
+      <c r="B4" s="433"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="433"/>
+      <c r="E4" s="434"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33442,11 +33442,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="287"/>
-      <c r="I17" s="407" t="s">
+      <c r="I17" s="410" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="407"/>
-      <c r="K17" s="407"/>
+      <c r="J17" s="410"/>
+      <c r="K17" s="410"/>
       <c r="L17" s="330">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -33469,11 +33469,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="287"/>
-      <c r="I18" s="425" t="s">
+      <c r="I18" s="435" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="425"/>
-      <c r="K18" s="425"/>
+      <c r="J18" s="435"/>
+      <c r="K18" s="435"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -33485,21 +33485,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="416" t="s">
+      <c r="A19" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="417"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="417"/>
-      <c r="E19" s="418"/>
+      <c r="B19" s="427"/>
+      <c r="C19" s="427"/>
+      <c r="D19" s="427"/>
+      <c r="E19" s="428"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="408" t="s">
+      <c r="I19" s="418" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="408"/>
-      <c r="K19" s="408"/>
+      <c r="J19" s="418"/>
+      <c r="K19" s="418"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -33527,11 +33527,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="426" t="s">
+      <c r="I20" s="417" t="s">
         <v>146</v>
       </c>
-      <c r="J20" s="426"/>
-      <c r="K20" s="426"/>
+      <c r="J20" s="417"/>
+      <c r="K20" s="417"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -33558,11 +33558,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="427" t="s">
+      <c r="I21" s="436" t="s">
         <v>181</v>
       </c>
-      <c r="J21" s="428"/>
-      <c r="K21" s="429"/>
+      <c r="J21" s="437"/>
+      <c r="K21" s="438"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -33587,11 +33587,11 @@
       <c r="E22" s="246">
         <v>291370</v>
       </c>
-      <c r="I22" s="427" t="s">
+      <c r="I22" s="436" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="428"/>
-      <c r="K22" s="429"/>
+      <c r="J22" s="437"/>
+      <c r="K22" s="438"/>
       <c r="L22" s="355">
         <v>20000</v>
       </c>
@@ -33616,11 +33616,11 @@
       <c r="E23" s="246">
         <v>54230</v>
       </c>
-      <c r="I23" s="407" t="s">
+      <c r="I23" s="410" t="s">
         <v>188</v>
       </c>
-      <c r="J23" s="407"/>
-      <c r="K23" s="407"/>
+      <c r="J23" s="410"/>
+      <c r="K23" s="410"/>
       <c r="L23" s="330">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>168150</v>
@@ -33690,13 +33690,13 @@
       <c r="E26" s="246">
         <v>30180</v>
       </c>
-      <c r="I26" s="433" t="s">
+      <c r="I26" s="411" t="s">
         <v>171</v>
       </c>
-      <c r="J26" s="434"/>
-      <c r="K26" s="434"/>
-      <c r="L26" s="434"/>
-      <c r="M26" s="435"/>
+      <c r="J26" s="412"/>
+      <c r="K26" s="412"/>
+      <c r="L26" s="412"/>
+      <c r="M26" s="413"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -33717,11 +33717,11 @@
       <c r="E27" s="314">
         <v>17000</v>
       </c>
-      <c r="I27" s="436" t="s">
+      <c r="I27" s="414" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="436"/>
-      <c r="K27" s="437"/>
+      <c r="J27" s="414"/>
+      <c r="K27" s="415"/>
       <c r="L27" s="342">
         <v>213170</v>
       </c>
@@ -33746,11 +33746,11 @@
       <c r="E28" s="253">
         <v>150770</v>
       </c>
-      <c r="I28" s="438" t="s">
+      <c r="I28" s="416" t="s">
         <v>172</v>
       </c>
-      <c r="J28" s="426"/>
-      <c r="K28" s="426"/>
+      <c r="J28" s="417"/>
+      <c r="K28" s="417"/>
       <c r="L28" s="341">
         <v>79500</v>
       </c>
@@ -33777,11 +33777,11 @@
       <c r="E29" s="329">
         <v>50000</v>
       </c>
-      <c r="I29" s="438" t="s">
+      <c r="I29" s="416" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="426"/>
-      <c r="K29" s="426"/>
+      <c r="J29" s="417"/>
+      <c r="K29" s="417"/>
       <c r="L29" s="344">
         <v>47500</v>
       </c>
@@ -33799,9 +33799,9 @@
       <c r="B30" s="33"/>
       <c r="C30" s="5"/>
       <c r="D30" s="32"/>
-      <c r="I30" s="430"/>
-      <c r="J30" s="431"/>
-      <c r="K30" s="432"/>
+      <c r="I30" s="407"/>
+      <c r="J30" s="408"/>
+      <c r="K30" s="409"/>
       <c r="L30" s="341"/>
       <c r="M30" s="341"/>
       <c r="N30" s="7"/>
@@ -33811,11 +33811,11 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
-      <c r="I31" s="407" t="s">
+      <c r="I31" s="410" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="407"/>
-      <c r="K31" s="407"/>
+      <c r="J31" s="410"/>
+      <c r="K31" s="410"/>
       <c r="L31" s="340" t="e">
         <f>L27-L28-L29-#REF!-L30</f>
         <v>#REF!</v>
@@ -36545,12 +36545,6 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I1:K1"/>
@@ -36564,6 +36558,12 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
